--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail3 Features.xlsx
@@ -936,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,29 +947,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -990,115 +988,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1115,72 +1103,66 @@
         <v>1.925620585591218e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4543186478442356</v>
+        <v>9.407225371249459e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5251163311132951</v>
+        <v>4.392405979607557e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.407225371249459e-07</v>
+        <v>-0.06175022945546507</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.392405979607557e-06</v>
+        <v>0.2391212978906527</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06175022945546507</v>
+        <v>0.06084987586472465</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2391212978906527</v>
+        <v>1.543182529671471</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06084987586472465</v>
+        <v>1.689242030650312</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.454046262360003</v>
+        <v>3.547440006458773</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.689242030650312</v>
+        <v>6.844413053603565e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.547440006458773</v>
+        <v>40663908.45235975</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.844413053603565e-15</v>
+        <v>2.616800304129352e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40663908.45235975</v>
+        <v>11.31760282226771</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.616800304129352e-06</v>
+        <v>0.00013998501341942</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.31760282226771</v>
+        <v>9.063044359438431</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.00013998501341942</v>
+        <v>1.556247290097397</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.063044359438431</v>
+        <v>0.0114981972492196</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.556247290097397</v>
+        <v>2.982971809474755</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0114981972492196</v>
+        <v>0.9367401269184941</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.982971809474755</v>
+        <v>1.813337861046943</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9367401269184941</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.813337861046943</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2301318413882032</v>
       </c>
     </row>
@@ -1195,72 +1177,66 @@
         <v>1.795487629779709e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2676849051705941</v>
+        <v>6.985209161426651e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.108303340100472</v>
+        <v>4.382573506521569e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.985209161426651e-07</v>
+        <v>-0.04482378867118085</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.382573506521569e-06</v>
+        <v>0.1935834656017672</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04482378867118085</v>
+        <v>0.03940327280283637</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1935834656017672</v>
+        <v>1.542770120161156</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03940327280283637</v>
+        <v>1.580766793160861</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.449890993883318</v>
+        <v>3.648076940702405</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.580766793160861</v>
+        <v>6.471997654232904e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.648076940702405</v>
+        <v>43027031.32453867</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.471997654232904e-15</v>
+        <v>2.466935223755228e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>43027031.32453867</v>
+        <v>11.98177380525126</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.466935223755228e-06</v>
+        <v>0.0001538940249330424</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.98177380525126</v>
+        <v>9.729815059103297</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001538940249330424</v>
+        <v>1.50852423138284</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.729815059103297</v>
+        <v>0.01456903978146916</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.50852423138284</v>
+        <v>2.793134993657168</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01456903978146916</v>
+        <v>0.9374484553801106</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.793134993657168</v>
+        <v>1.823963433633029</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9374484553801106</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.823963433633029</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2314788024928798</v>
       </c>
     </row>
@@ -1275,72 +1251,66 @@
         <v>1.740232306356441e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2762524030983491</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.095395387944472</v>
+        <v>4.375921795846683e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.03133186208904494</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.375921795846683e-06</v>
+        <v>0.16151886647208</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03133186208904494</v>
+        <v>0.02703416026460681</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.16151886647208</v>
+        <v>1.554475665979996</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02703416026460681</v>
+        <v>1.590494891753095</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.460485073927423</v>
+        <v>3.505097930471737</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.590494891753095</v>
+        <v>5.996148684157405e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.505097930471737</v>
+        <v>45092141.23977318</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.996148684157405e-15</v>
+        <v>2.361517253818816e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45092141.23977318</v>
+        <v>12.19197632439547</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.361517253818816e-06</v>
+        <v>0.0001428037192874718</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.19197632439547</v>
+        <v>9.220047104009813</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001428037192874718</v>
+        <v>1.548265551812276</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.220047104009813</v>
+        <v>0.01213963973001051</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.548265551812276</v>
+        <v>2.830278755851395</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01213963973001051</v>
+        <v>0.9381372859668275</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.830278755851395</v>
+        <v>1.857272085514457</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9381372859668275</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.857272085514457</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2478308617668786</v>
       </c>
     </row>
@@ -1355,72 +1325,66 @@
         <v>1.718246207269961e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3308676883480743</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.011333011454798</v>
+        <v>4.371375747265577e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.02204374041473375</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.371375747265577e-06</v>
+        <v>0.1467476436283038</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02204374041473375</v>
+        <v>0.02200995879392823</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1467476436283038</v>
+        <v>1.60282197826802</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02200995879392823</v>
+        <v>1.655485025999241</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.50425763031167</v>
+        <v>3.427857890196788</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.655485025999241</v>
+        <v>6.589407111485469e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.427857890196788</v>
+        <v>39507540.78193177</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.589407111485469e-15</v>
+        <v>2.784599685833857e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>39507540.78193177</v>
+        <v>10.28504827367614</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.784599685833857e-06</v>
+        <v>0.0001340426843629359</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.28504827367614</v>
+        <v>8.624535657485117</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001340426843629359</v>
+        <v>1.568785681434701</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.624535657485117</v>
+        <v>0.009970445425717019</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.568785681434701</v>
+        <v>2.903306865118989</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009970445425717019</v>
+        <v>0.9411129578347591</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.903306865118989</v>
+        <v>1.836354246437999</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9411129578347591</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.836354246437999</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.257620512440126</v>
       </c>
     </row>
@@ -1435,72 +1399,66 @@
         <v>1.708040191795102e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3825065748470929</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9463963914741789</v>
+        <v>4.368107298644372e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.0167918231655486</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.368107298644372e-06</v>
+        <v>0.1442175582389044</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0167918231655486</v>
+        <v>0.02107928537367179</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1442175582389044</v>
+        <v>1.56345635887314</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02107928537367179</v>
+        <v>1.675521882572656</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.469603727138884</v>
+        <v>3.451241001538064</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.675521882572656</v>
+        <v>6.770130107763147e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.451241001538064</v>
+        <v>39106721.34358042</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.770130107763147e-15</v>
+        <v>2.741924802728476e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>39106721.34358042</v>
+        <v>10.35380135767599</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.741924802728476e-06</v>
+        <v>0.0001254407351929495</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.35380135767599</v>
+        <v>7.906910815401353</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001254407351929495</v>
+        <v>1.582197433028732</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.906910815401353</v>
+        <v>0.007842459259045111</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.582197433028732</v>
+        <v>3.024586986685778</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007842459259045111</v>
+        <v>0.9366137151346929</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.024586986685778</v>
+        <v>1.832330136204792</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9366137151346929</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.832330136204792</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2398184552862988</v>
       </c>
     </row>
@@ -1515,72 +1473,66 @@
         <v>1.700290721091464e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4280441213460209</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8884407844790401</v>
+        <v>4.365408874153477e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.01553368187353548</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.365408874153477e-06</v>
+        <v>0.1449027402003849</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01553368187353548</v>
+        <v>0.02123796305847412</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1449027402003849</v>
+        <v>1.536438971715572</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02123796305847412</v>
+        <v>1.610031458803617</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.440307907227264</v>
+        <v>3.45890781241977</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.610031458803617</v>
+        <v>6.740150828249194e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.45890781241977</v>
+        <v>38097095.34310739</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.740150828249194e-15</v>
+        <v>2.774623879085249e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>38097095.34310739</v>
+        <v>9.782578570353971</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.774623879085249e-06</v>
+        <v>0.0001388435520788329</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.782578570353971</v>
+        <v>8.809780177990628</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001388435520788329</v>
+        <v>1.531518994303347</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.809780177990628</v>
+        <v>0.01077595725151022</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.531518994303347</v>
+        <v>2.883460597485231</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01077595725151022</v>
+        <v>0.9369317445228251</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.883460597485231</v>
+        <v>1.865795106923108</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9369317445228251</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.865795106923108</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.22062341009917</v>
       </c>
     </row>
@@ -1595,72 +1547,66 @@
         <v>1.690886126485917e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4752683010075981</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8190796433519005</v>
+        <v>4.36261770893137e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.01784138419515785</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.36261770893137e-06</v>
+        <v>0.1443624870894953</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01784138419515785</v>
+        <v>0.02115627042888191</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1443624870894953</v>
+        <v>1.523156170413439</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02115627042888191</v>
+        <v>1.736031780047283</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.428870980906107</v>
+        <v>3.495213828964188</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.736031780047283</v>
+        <v>6.600853431764287e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.495213828964188</v>
+        <v>38965301.62491981</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.600853431764287e-15</v>
+        <v>2.702948290408962e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>38965301.62491981</v>
+        <v>10.02204098370921</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.702948290408962e-06</v>
+        <v>0.0001624464582025793</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.02204098370921</v>
+        <v>10.15334725962654</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001624464582025793</v>
+        <v>1.444970381495008</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.15334725962654</v>
+        <v>0.01674668019481083</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.444970381495008</v>
+        <v>2.645055595070999</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01674668019481083</v>
+        <v>0.938010923094774</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.645055595070999</v>
+        <v>1.850617340530672</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.938010923094774</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.850617340530672</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.208199961759119</v>
       </c>
     </row>
@@ -1675,72 +1621,66 @@
         <v>1.675795359280597e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5287301741826629</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7197533536547223</v>
+        <v>4.359291633598779e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.02170815407293361</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.359291633598779e-06</v>
+        <v>0.1420546745780193</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02170815407293361</v>
+        <v>0.02064705774441697</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1420546745780193</v>
+        <v>1.504583668236999</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02064705774441697</v>
+        <v>1.603501594064981</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.41343277076306</v>
+        <v>3.489852202493966</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.603501594064981</v>
+        <v>6.6211514244071e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.489852202493966</v>
+        <v>39186637.0999476</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.6211514244071e-15</v>
+        <v>2.660433215402062e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>39186637.0999476</v>
+        <v>10.16739064879897</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.660433215402062e-06</v>
+        <v>0.0001503601664964434</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10.16739064879897</v>
+        <v>9.702657663836874</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001503601664964434</v>
+        <v>1.488946964957671</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.702657663836874</v>
+        <v>0.01415514149914471</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.488946964957671</v>
+        <v>2.811846968398866</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01415514149914471</v>
+        <v>0.9375303872756887</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.811846968398866</v>
+        <v>1.84231472756487</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9375303872756887</v>
+        <v>13</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.84231472756487</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2143368276268997</v>
       </c>
     </row>
@@ -1755,72 +1695,66 @@
         <v>1.651735653029107e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5859757449742865</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5821506861000971</v>
+        <v>4.355305323178712e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.02673170670194687</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.355305323178712e-06</v>
+        <v>0.1390270560909085</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02673170670194687</v>
+        <v>0.02003539897308193</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1390270560909085</v>
+        <v>1.507223571137048</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02003539897308193</v>
+        <v>1.672048409008921</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.417250799416726</v>
+        <v>3.467656547908616</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.672048409008921</v>
+        <v>6.706183559899939e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.467656547908616</v>
+        <v>38764879.41512814</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.706183559899939e-15</v>
+        <v>2.703322209517507e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>38764879.41512814</v>
+        <v>10.07748850329742</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.703322209517507e-06</v>
+        <v>0.0001211669032904014</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10.07748850329742</v>
+        <v>7.653388116802056</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001211669032904014</v>
+        <v>1.545582100692927</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.653388116802056</v>
+        <v>0.007097272561327683</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.545582100692927</v>
+        <v>3.13241597946908</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007097272561327683</v>
+        <v>0.9367573515020636</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.13241597946908</v>
+        <v>1.865316575984705</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9367573515020636</v>
+        <v>13</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.865316575984705</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2207331197237418</v>
       </c>
     </row>
@@ -1835,72 +1769,66 @@
         <v>1.612473040818975e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6387962494979145</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4091585248345524</v>
+        <v>4.350316533403409e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.03445897743443641</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.350316533403409e-06</v>
+        <v>0.1330123343124006</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03445897743443641</v>
+        <v>0.01887207328242659</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1330123343124006</v>
+        <v>1.534258182278374</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01887207328242659</v>
+        <v>1.58680609411371</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.435711828785009</v>
+        <v>3.577399029802704</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.58680609411371</v>
+        <v>6.301048462549032e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.577399029802704</v>
+        <v>41581018.34707412</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.301048462549032e-15</v>
+        <v>2.580824775365179e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>41581018.34707412</v>
+        <v>10.89439361862968</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.580824775365179e-06</v>
+        <v>0.0001116270446869821</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10.89439361862968</v>
+        <v>7.012384917801646</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001116270446869821</v>
+        <v>1.419421684919031</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.012384917801646</v>
+        <v>0.005489097196529539</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.419421684919031</v>
+        <v>3.149703949107593</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005489097196529539</v>
+        <v>0.9393972358323538</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.149703949107593</v>
+        <v>1.832817845786172</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9393972358323538</v>
+        <v>17</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.832817845786172</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2317205072191338</v>
       </c>
     </row>
@@ -1915,72 +1843,66 @@
         <v>1.5533787094753e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6662742921083868</v>
+        <v>5.96225421525728e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2514978697179715</v>
+        <v>4.344286476132067e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.96225421525728e-07</v>
+        <v>-0.04119337151211666</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.344286476132067e-06</v>
+        <v>0.1320385548225623</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04119337151211666</v>
+        <v>0.01912971405771442</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1320385548225623</v>
+        <v>1.557921821040303</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01912971405771442</v>
+        <v>1.775054735791874</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.458791011684339</v>
+        <v>3.661307021938168</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.775054735791874</v>
+        <v>6.015549330121729e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.661307021938168</v>
+        <v>43504367.09590745</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.015549330121729e-15</v>
+        <v>2.47724696801828e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>43504367.09590745</v>
+        <v>11.38520886648342</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.47724696801828e-06</v>
+        <v>0.0001063131954803812</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>11.38520886648342</v>
+        <v>6.997233498193767</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001063131954803812</v>
+        <v>1.362373361047387</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.997233498193767</v>
+        <v>0.00520522977314763</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.362373361047387</v>
+        <v>3.124073195926031</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00520522977314763</v>
+        <v>0.9419041062634733</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.124073195926031</v>
+        <v>1.841880146556166</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9419041062634733</v>
+        <v>17</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.841880146556166</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2358670099239809</v>
       </c>
     </row>
@@ -1995,72 +1917,66 @@
         <v>1.480642145772867e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6584287517278863</v>
+        <v>5.914581656933379e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.158741458274144</v>
+        <v>4.337784364147739e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.914581656933379e-07</v>
+        <v>-0.0436299017022953</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.337784364147739e-06</v>
+        <v>0.1379883467951197</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0436299017022953</v>
+        <v>0.02094354294039384</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1379883467951197</v>
+        <v>1.576930324706694</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02094354294039384</v>
+        <v>1.608338901767272</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.476751277209364</v>
+        <v>3.555194590912435</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.608338901767272</v>
+        <v>6.380002319534149e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.555194590912435</v>
+        <v>41127915.142561</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.380002319534149e-15</v>
+        <v>2.637801534954628e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>41127915.142561</v>
+        <v>10.79180840085675</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.637801534954628e-06</v>
+        <v>0.0001024984728250331</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>10.79180840085675</v>
+        <v>6.849603862979676</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001024984728250331</v>
+        <v>1.531234671841061</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.849603862979676</v>
+        <v>0.004808928340094448</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.531234671841061</v>
+        <v>3.264830998541784</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004808928340094448</v>
+        <v>0.9453010578407297</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.264830998541784</v>
+        <v>1.850798106507443</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9453010578407297</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.850798106507443</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2281165783565762</v>
       </c>
     </row>
@@ -2075,72 +1991,66 @@
         <v>1.408001941912694e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6366917047082946</v>
+        <v>5.623903006332265e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.07867660399647081</v>
+        <v>4.331594482895105e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.623903006332265e-07</v>
+        <v>-0.0414965700498859</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.331594482895105e-06</v>
+        <v>0.1441431876218174</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0414965700498859</v>
+        <v>0.02249477921290555</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1441431876218174</v>
+        <v>1.569543670523992</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02249477921290555</v>
+        <v>1.587915250834659</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.468576966796977</v>
+        <v>3.662001723118427</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.587915250834659</v>
+        <v>6.95901796578562e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.662001723118427</v>
+        <v>37448001.32222994</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.95901796578562e-15</v>
+        <v>2.886707401740789e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>37448001.32222994</v>
+        <v>9.75899835065375</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.886707401740789e-06</v>
+        <v>0.00010517597309524</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9.75899835065375</v>
+        <v>6.532465083222979</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.00010517597309524</v>
+        <v>1.55347867507327</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.532465083222979</v>
+        <v>0.004488184824172043</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.55347867507327</v>
+        <v>3.338842975861355</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.004488184824172043</v>
+        <v>0.9466674482718497</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.338842975861355</v>
+        <v>1.825342411354794</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9466674482718497</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.825342411354794</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2185329272860142</v>
       </c>
     </row>
@@ -2155,72 +2065,66 @@
         <v>1.342934237359469e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6175036259909937</v>
+        <v>5.283124780881611e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.04476016992109466</v>
+        <v>4.326201990728068e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.283124780881611e-07</v>
+        <v>-0.0365828522905211</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.326201990728068e-06</v>
+        <v>0.1508996196474069</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0365828522905211</v>
+        <v>0.02410275615270732</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1508996196474069</v>
+        <v>1.57646361375323</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02410275615270732</v>
+        <v>1.687042330856776</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.478393893183426</v>
+        <v>3.620715490599052</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.687042330856776</v>
+        <v>7.926919942472542e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.620715490599052</v>
+        <v>31999949.99009278</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.926919942472542e-15</v>
+        <v>3.370497733300347e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>31999949.99009278</v>
+        <v>8.117140649941735</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.370497733300347e-06</v>
+        <v>0.0001095226028105886</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.117140649941735</v>
+        <v>6.87769114151845</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001095226028105886</v>
+        <v>1.46206738898907</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.87769114151845</v>
+        <v>0.005180707752983436</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.46206738898907</v>
+        <v>3.304483896542487</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005180707752983436</v>
+        <v>0.9464925085247012</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.304483896542487</v>
+        <v>1.818091296767422</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9464925085247012</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.818091296767422</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2086581941973935</v>
       </c>
     </row>
@@ -2235,72 +2139,66 @@
         <v>1.285726541402668e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5946005022674005</v>
+        <v>5.14585856839621e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.2004497486902634</v>
+        <v>4.321765036096473e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.14585856839621e-07</v>
+        <v>-0.03115690608244267</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.321765036096473e-06</v>
+        <v>0.1602244020840665</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03115690608244267</v>
+        <v>0.02663875764403028</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1602244020840665</v>
+        <v>1.540755696577401</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02663875764403028</v>
+        <v>1.489073161266618</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.441659811946761</v>
+        <v>3.728298688550953</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.489073161266618</v>
+        <v>7.282442112641973e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.728298688550953</v>
+        <v>33439440.92632279</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.282442112641973e-15</v>
+        <v>3.108495717321512e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>33439440.92632279</v>
+        <v>8.143199166004772</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.108495717321512e-06</v>
+        <v>0.0001052334534119665</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8.143199166004772</v>
+        <v>7.678122960353098</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001052334534119665</v>
+        <v>1.224365773147189</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.678122960353098</v>
+        <v>0.006203887992978023</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.224365773147189</v>
+        <v>3.167877244350408</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006203887992978023</v>
+        <v>0.9448532158257876</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.167877244350408</v>
+        <v>1.865080166661733</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9448532158257876</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.865080166661733</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2239599541141634</v>
       </c>
     </row>
@@ -2315,72 +2213,66 @@
         <v>1.232607070683133e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5524137927413025</v>
+        <v>5.14585856839621e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.3447394709128666</v>
+        <v>4.318033194737373e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.14585856839621e-07</v>
+        <v>-0.02871035761048668</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.318033194737373e-06</v>
+        <v>0.1691931356081063</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02871035761048668</v>
+        <v>0.02944918917380384</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1691931356081063</v>
+        <v>1.533097030586676</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02944918917380384</v>
+        <v>1.620110110541229</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.437838680795383</v>
+        <v>3.479842654227788</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.620110110541229</v>
+        <v>6.984166491797692e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.479842654227788</v>
+        <v>34392355.33193954</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.984166491797692e-15</v>
+        <v>3.011038702518079e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>34392355.33193954</v>
+        <v>8.261110323440835</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.011038702518079e-06</v>
+        <v>0.0001069086074019249</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.261110323440835</v>
+        <v>8.795662625666454</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001069086074019249</v>
+        <v>1.45566471306922</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.795662625666454</v>
+        <v>0.008270843401820901</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.45566471306922</v>
+        <v>3.214011155214988</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008270843401820901</v>
+        <v>0.9452315637800067</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.214011155214988</v>
+        <v>1.874404054340318</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9452315637800067</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.874404054340318</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.217447622612542</v>
       </c>
     </row>
@@ -2395,72 +2287,66 @@
         <v>1.17655570579396e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4626579659897693</v>
+        <v>5.14585856839621e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.4063720939582711</v>
+        <v>4.314561802071665e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.14585856839621e-07</v>
+        <v>-0.02901980715251249</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.314561802071665e-06</v>
+        <v>0.1781983135632513</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02901980715251249</v>
+        <v>0.0325935836415126</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1781983135632513</v>
+        <v>1.532027448917676</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0325935836415126</v>
+        <v>1.678809201790259</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.434327991994492</v>
+        <v>3.464708146391675</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.678809201790259</v>
+        <v>7.045316107366928e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.464708146391675</v>
+        <v>35216186.4954294</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.045316107366928e-15</v>
+        <v>2.958765366164529e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>35216186.4954294</v>
+        <v>8.737458659542025</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.958765366164529e-06</v>
+        <v>0.0001105769877144505</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8.737458659542025</v>
+        <v>8.258120909939047</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001105769877144505</v>
+        <v>1.740808080222085</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.258120909939047</v>
+        <v>0.007540970283792497</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.740808080222085</v>
+        <v>3.328728215281261</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007540970283792497</v>
+        <v>0.9456069458182388</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.328728215281261</v>
+        <v>1.867528879200001</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9456069458182388</v>
+        <v>14</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.867528879200001</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2123162289932505</v>
       </c>
     </row>
@@ -2475,72 +2361,66 @@
         <v>1.115760883339023e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2903721657550459</v>
+        <v>5.110386614640362e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.2640379138577367</v>
+        <v>4.311302868974032e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.110386614640362e-07</v>
+        <v>-0.02698105352416983</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.311302868974032e-06</v>
+        <v>0.1903779744383215</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02698105352416983</v>
+        <v>0.03696723975432503</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1903779744383215</v>
+        <v>1.523903346811674</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03696723975432503</v>
+        <v>1.617985910254746</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.42474545560994</v>
+        <v>3.490808788787721</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.617985910254746</v>
+        <v>6.940354862944094e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.490808788787721</v>
+        <v>36575747.93397015</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.940354862944094e-15</v>
+        <v>2.862509421595404e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36575747.93397015</v>
+        <v>9.284704968732717</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.862509421595404e-06</v>
+        <v>0.0001039188470237241</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>9.284704968732717</v>
+        <v>6.493360450920068</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001039188470237241</v>
+        <v>1.818631021205854</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.493360450920068</v>
+        <v>0.004381606202163603</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.818631021205854</v>
+        <v>3.384729503491176</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.004381606202163603</v>
+        <v>0.944924172630248</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.384729503491176</v>
+        <v>1.868987314246001</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.944924172630248</v>
+        <v>16</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.868987314246001</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2145556187710501</v>
       </c>
     </row>
@@ -2555,72 +2435,66 @@
         <v>1.062491868409252e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.07656476270913748</v>
+        <v>4.846165999476369e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.02894824562139187</v>
+        <v>4.308699029290371e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.846165999476369e-07</v>
+        <v>-0.02020340740444382</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.308699029290371e-06</v>
+        <v>0.2006317894040759</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02020340740444382</v>
+        <v>0.04065127355680485</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2006317894040759</v>
+        <v>1.540603299263599</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04065127355680485</v>
+        <v>1.594376189141576</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.440901503565471</v>
+        <v>3.603102708889057</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.594376189141576</v>
+        <v>6.514491380314357e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.603102708889057</v>
+        <v>41527244.71063142</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.514491380314357e-15</v>
+        <v>2.583041797537896e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>41527244.71063142</v>
+        <v>11.23431890618876</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.583041797537896e-06</v>
+        <v>0.0001031088763504668</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>11.23431890618876</v>
+        <v>6.774876217780648</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001031088763504668</v>
+        <v>1.206012939005454</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.774876217780648</v>
+        <v>0.004732588929846788</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.206012939005454</v>
+        <v>3.229974155572633</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004732588929846788</v>
+        <v>0.944875328111224</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.229974155572633</v>
+        <v>1.869539090322878</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.944875328111224</v>
+        <v>25</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.869539090322878</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2262506474647406</v>
       </c>
     </row>
@@ -2635,72 +2509,66 @@
         <v>1.026956248429818e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.09593228687205779</v>
+        <v>4.502657094465877e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.2851501038764179</v>
+        <v>4.307019929688178e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.502657094465877e-07</v>
+        <v>-0.01219490081697553</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.307019929688178e-06</v>
+        <v>0.2052359424553538</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01219490081697553</v>
+        <v>0.04226286355758906</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2052359424553538</v>
+        <v>1.558655201869585</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04226286355758906</v>
+        <v>1.644134661485734</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.454012852580332</v>
+        <v>3.81751040517522</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.644134661485734</v>
+        <v>7.397649890165234e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.81751040517522</v>
+        <v>36507517.78756464</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.397649890165234e-15</v>
+        <v>2.980472938122905e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>36507517.78756464</v>
+        <v>9.859579303372259</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.980472938122905e-06</v>
+        <v>0.0001062071586650142</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>9.859579303372259</v>
+        <v>7.31731746172605</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001062071586650142</v>
+        <v>1.21431981973109</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.31731746172605</v>
+        <v>0.005686664216915415</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.21431981973109</v>
+        <v>3.079699834573125</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.005686664216915415</v>
+        <v>0.9489899055283019</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.079699834573125</v>
+        <v>1.850587898085864</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9489899055283019</v>
+        <v>24</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.850587898085864</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2331408942528668</v>
       </c>
     </row>
@@ -2715,72 +2583,66 @@
         <v>1.007766346226177e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1958160591006143</v>
+        <v>4.177962923071038e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.4254987853629415</v>
+        <v>4.306101332491859e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.177962923071038e-07</v>
+        <v>-0.006162931678265674</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.306101332491859e-06</v>
+        <v>0.2054089082512049</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.006162931678265674</v>
+        <v>0.04222417501740272</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2054089082512049</v>
+        <v>1.555402076433443</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.04222417501740272</v>
+        <v>1.588796780430132</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.450601080202218</v>
+        <v>3.757131404295412</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.588796780430132</v>
+        <v>7.637328362136517e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.757131404295412</v>
+        <v>35646608.24852519</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.637328362136517e-15</v>
+        <v>3.038840464826734e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>35646608.24852519</v>
+        <v>9.704605593709939</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.038840464826734e-06</v>
+        <v>0.0001020319108752005</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9.704605593709939</v>
+        <v>7.016753254870509</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001020319108752005</v>
+        <v>1.194603815751138</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.016753254870509</v>
+        <v>0.005023523402848716</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.194603815751138</v>
+        <v>3.241194684476806</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005023523402848716</v>
+        <v>0.9478581073311392</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.241194684476806</v>
+        <v>1.833347989386539</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9478581073311392</v>
+        <v>24</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.833347989386539</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2294861853061463</v>
       </c>
     </row>
@@ -2795,72 +2657,66 @@
         <v>1.000632804938551e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2319003921948778</v>
+        <v>3.877929704844042e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4681267371634621</v>
+        <v>4.305743034194235e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.877929704844042e-07</v>
+        <v>-0.001168924193265207</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.305743034194235e-06</v>
+        <v>0.2032923988139206</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.001168924193265207</v>
+        <v>0.04132472640188808</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2032923988139206</v>
+        <v>1.565127548186472</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04132472640188808</v>
+        <v>1.65302939718784</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.461230744754318</v>
+        <v>3.787514997584533</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.65302939718784</v>
+        <v>7.515285954951027e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.787514997584533</v>
+        <v>36040505.67141494</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.515285954951027e-15</v>
+        <v>3.020441945651087e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>36040505.67141494</v>
+        <v>9.76174057066757</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.020441945651087e-06</v>
+        <v>0.0001088945547267174</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9.76174057066757</v>
+        <v>7.099655816776245</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001088945547267174</v>
+        <v>1.353457239039104</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.099655816776245</v>
+        <v>0.005488842305233387</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.353457239039104</v>
+        <v>3.288227383303049</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.005488842305233387</v>
+        <v>0.9476010811564377</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.288227383303049</v>
+        <v>1.845642980487156</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9476010811564377</v>
+        <v>29</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.845642980487156</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2222209240899509</v>
       </c>
     </row>
@@ -2875,72 +2731,66 @@
         <v>1.001757771007517e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2269843959218281</v>
+        <v>3.808787895105483e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.4645702628138793</v>
+        <v>4.305807445024824e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.808787895105483e-07</v>
+        <v>0.002115440627375722</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.305807445024824e-06</v>
+        <v>0.2011627928432702</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.002115440627375722</v>
+        <v>0.04046887046813906</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2011627928432702</v>
+        <v>1.582979634237926</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04046887046813906</v>
+        <v>1.647266161295732</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.478921918636871</v>
+        <v>3.806339804650032</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.647266161295732</v>
+        <v>7.441133895103326e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.806339804650032</v>
+        <v>36030928.10413357</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.441133895103326e-15</v>
+        <v>3.037441220931992e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>36030928.10413357</v>
+        <v>9.660286737659396</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.037441220931992e-06</v>
+        <v>0.0001185088403179905</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9.660286737659396</v>
+        <v>7.720025443614715</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001185088403179905</v>
+        <v>1.464354167862998</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.720025443614715</v>
+        <v>0.007062983825012585</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.464354167862998</v>
+        <v>3.18881087807408</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.007062983825012585</v>
+        <v>0.95020954403255</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.18881087807408</v>
+        <v>1.854979366365403</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.95020954403255</v>
+        <v>37</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.854979366365403</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2186813660622496</v>
       </c>
     </row>
@@ -3317,7 +3167,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.238405276007603</v>
+        <v>1.239986639764654</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.90325232938809</v>
@@ -3406,7 +3256,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.232067537044082</v>
+        <v>1.234570521697624</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.907670072921497</v>
@@ -3495,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.225785985488145</v>
+        <v>1.230948297225975</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.895535530169672</v>
@@ -3584,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.221121494071447</v>
+        <v>1.224741963837075</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.908267111856388</v>
@@ -3673,7 +3523,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.224529340225512</v>
+        <v>1.228348491711613</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.886683417476498</v>
@@ -3762,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.225533072400427</v>
+        <v>1.233350587936929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.860569893662679</v>
@@ -3851,7 +3701,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.252144525723479</v>
+        <v>1.262877119208316</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.734050654032022</v>
@@ -3940,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.308362627081534</v>
+        <v>1.327837312586938</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.822618898067464</v>
@@ -4029,7 +3879,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.356305081113747</v>
+        <v>1.38115816132536</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.865932458153142</v>
@@ -4118,7 +3968,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.379852355718588</v>
+        <v>1.400114840063296</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.879267370589482</v>
@@ -4207,7 +4057,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490215158594421</v>
+        <v>1.499542963999117</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.265324771794082</v>
@@ -4296,7 +4146,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520642025346491</v>
+        <v>1.526587713800182</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.0264246284365</v>
@@ -4385,7 +4235,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.538876361682041</v>
+        <v>1.546705946899019</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.797156508217091</v>
@@ -4474,7 +4324,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556028697724304</v>
+        <v>1.558593645183147</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.197611201943948</v>
@@ -4563,7 +4413,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.53067526927346</v>
+        <v>1.535131601618323</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.109660050770632</v>
@@ -4652,7 +4502,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351036841139183</v>
+        <v>1.340665920570795</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.6849722322597</v>
@@ -4741,7 +4591,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.266436858389784</v>
+        <v>1.283483378030099</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.730291731451102</v>
@@ -4830,7 +4680,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.260225300698815</v>
+        <v>1.273041584590638</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.722464987870198</v>
@@ -4919,7 +4769,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.259577717983343</v>
+        <v>1.272571813486294</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.703904794762903</v>
@@ -5008,7 +4858,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.261550559555758</v>
+        <v>1.27369999922952</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.731343889368159</v>
@@ -5097,7 +4947,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.250935788387686</v>
+        <v>1.260156618125315</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.736619812610928</v>
@@ -5186,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.243319801279602</v>
+        <v>1.254453754533386</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.727700919518404</v>
@@ -5275,7 +5125,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.233491650902829</v>
+        <v>1.24336390544791</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.737918491650332</v>
@@ -5364,7 +5214,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.229696481790748</v>
+        <v>1.238251299276194</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.725167694702678</v>
@@ -5453,7 +5303,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.229237146842022</v>
+        <v>1.241850475858461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.716731538660579</v>
@@ -5542,7 +5392,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.226561675894463</v>
+        <v>1.239654730618716</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.71475102511605</v>
@@ -5631,7 +5481,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.223585139976242</v>
+        <v>1.237786928912265</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.714415878179915</v>
@@ -5720,7 +5570,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.222246407728795</v>
+        <v>1.235922364007546</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.718440049875378</v>
@@ -5809,7 +5659,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.226288090305526</v>
+        <v>1.240501890359598</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.716277977497276</v>
@@ -5898,7 +5748,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.241143631205569</v>
+        <v>1.25598484776829</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.619517344563905</v>
@@ -5987,7 +5837,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.373128363480854</v>
+        <v>1.390525522389084</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.471032725828935</v>
@@ -6076,7 +5926,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.497844408266407</v>
+        <v>1.491860816899843</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.994827777902231</v>
@@ -6165,7 +6015,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.52325163681426</v>
+        <v>1.517757126545085</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.875686563129811</v>
@@ -6254,7 +6104,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.547190213715896</v>
+        <v>1.538662016188244</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.783817081676681</v>
@@ -6343,7 +6193,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569089394252163</v>
+        <v>1.555019545137527</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.657714830791254</v>
@@ -6432,7 +6282,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592867786246629</v>
+        <v>1.578273976895712</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.935183662974996</v>
@@ -6521,7 +6371,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605607206945195</v>
+        <v>1.579481505018739</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.845441481787133</v>
@@ -6610,7 +6460,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.640550043089928</v>
+        <v>1.60888444574261</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.400320463508581</v>
@@ -6699,7 +6549,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642522792643631</v>
+        <v>1.606812654663592</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.401256214290282</v>
@@ -6788,7 +6638,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642592379242707</v>
+        <v>1.592149697690868</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.177900560755231</v>
@@ -6877,7 +6727,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645536080781526</v>
+        <v>1.593338303981978</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.361877002478248</v>
@@ -6966,7 +6816,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.648467362533214</v>
+        <v>1.592924728068551</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.075104880218839</v>
@@ -7055,7 +6905,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648751187546501</v>
+        <v>1.591925865880996</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.10857417785045</v>
@@ -7144,7 +6994,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640255673604371</v>
+        <v>1.581946244726349</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.118755527961087</v>
@@ -7233,7 +7083,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.640929962027354</v>
+        <v>1.577400837269831</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.455761925231745</v>
@@ -7322,7 +7172,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64758472584643</v>
+        <v>1.585964410378208</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.275926560733797</v>
@@ -7411,7 +7261,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646930183323857</v>
+        <v>1.595928520107671</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.244999338951855</v>
@@ -7500,7 +7350,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649840140018945</v>
+        <v>1.606763231748341</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.998193426912918</v>
@@ -7589,7 +7439,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63750915211013</v>
+        <v>1.598913695308753</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.21965478112886</v>
@@ -7678,7 +7528,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.635079563476407</v>
+        <v>1.588065248545101</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.478697944027803</v>
@@ -7767,7 +7617,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636127894643493</v>
+        <v>1.587832851777993</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.047339335526606</v>
@@ -7856,7 +7706,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618725461784151</v>
+        <v>1.578946455734059</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.739601270660454</v>
@@ -7945,7 +7795,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576271804927138</v>
+        <v>1.539926693133166</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.576741885464247</v>
@@ -8034,7 +7884,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.554603414213864</v>
+        <v>1.531322351847162</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.536900886316817</v>
@@ -8123,7 +7973,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.565466122571277</v>
+        <v>1.549918908948831</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.448322036713129</v>
@@ -8212,7 +8062,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.562337435209022</v>
+        <v>1.545298100199274</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.601885643585491</v>
@@ -8301,7 +8151,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.55970013001076</v>
+        <v>1.544290546147666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.584220115148019</v>
@@ -8390,7 +8240,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.553143369087342</v>
+        <v>1.540107680653549</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.592161792194106</v>
@@ -8479,7 +8329,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.559311949146541</v>
+        <v>1.547835011242812</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.484567936795375</v>
@@ -8568,7 +8418,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.542405034438631</v>
+        <v>1.540297695888166</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.560664997127656</v>
@@ -8657,7 +8507,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.544717382157573</v>
+        <v>1.538820060478048</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.526906705692985</v>
@@ -8746,7 +8596,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.548338609205115</v>
+        <v>1.543029990036084</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.560649207653278</v>
@@ -8835,7 +8685,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.555687699120972</v>
+        <v>1.551470494161249</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.624195487851059</v>
@@ -8924,7 +8774,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.560033158667503</v>
+        <v>1.559430162332787</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.67151802249351</v>
@@ -9013,7 +8863,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.564373505643724</v>
+        <v>1.570253230707031</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.586596919961198</v>
@@ -9102,7 +8952,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.571645026141725</v>
+        <v>1.5762904679802</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.65920559083786</v>
@@ -9191,7 +9041,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.603188093897856</v>
+        <v>1.609161507253458</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.375451805269395</v>
@@ -9280,7 +9130,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.658422307814096</v>
+        <v>1.651608477881491</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.532349173162439</v>
@@ -9566,7 +9416,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.20363407777599</v>
+        <v>1.200174345028677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.866305420587637</v>
@@ -9655,7 +9505,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.193526656476064</v>
+        <v>1.188449909197279</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.889395784999488</v>
@@ -9744,7 +9594,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.195192463160347</v>
+        <v>1.191847518474525</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.870497361758002</v>
@@ -9833,7 +9683,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.191597977815725</v>
+        <v>1.187334854513872</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.879779331295646</v>
@@ -9922,7 +9772,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.187678337362604</v>
+        <v>1.184694353638703</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.894804187908364</v>
@@ -10011,7 +9861,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.188448506276495</v>
+        <v>1.187451224760104</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.878467832864194</v>
@@ -10100,7 +9950,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.184336246874569</v>
+        <v>1.183612037222327</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.913489585469969</v>
@@ -10189,7 +10039,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.186816488164065</v>
+        <v>1.191644770614844</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.935124841852641</v>
@@ -10278,7 +10128,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.200365302970268</v>
+        <v>1.207118208991239</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.927885618866594</v>
@@ -10367,7 +10217,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.197416481439669</v>
+        <v>1.204288054536885</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.823084851977297</v>
@@ -10456,7 +10306,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.236665220143077</v>
+        <v>1.24114869056746</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.740724156080062</v>
@@ -10545,7 +10395,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.267495166027587</v>
+        <v>1.269115031590176</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.133818195024551</v>
@@ -10634,7 +10484,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.280060142680659</v>
+        <v>1.282676294381681</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.096708131731162</v>
@@ -10723,7 +10573,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.268124635561887</v>
+        <v>1.271757736807284</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.942840550781471</v>
@@ -10812,7 +10662,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.265426061934343</v>
+        <v>1.274035603938235</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.100676959173145</v>
@@ -10901,7 +10751,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.214492299754142</v>
+        <v>1.211991640580508</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.845353226087552</v>
@@ -10990,7 +10840,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.185220003256328</v>
+        <v>1.1921216369683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.875388385609161</v>
@@ -11079,7 +10929,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.187513485273433</v>
+        <v>1.192930983451479</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.87061099847953</v>
@@ -11168,7 +11018,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.191932163225365</v>
+        <v>1.196117768133153</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.816345705708877</v>
@@ -11257,7 +11107,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.18930948782894</v>
+        <v>1.192751998324738</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.839747524563771</v>
@@ -11346,7 +11196,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.190321394230461</v>
+        <v>1.191728031889031</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.854933889127785</v>
@@ -11435,7 +11285,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.198765805389011</v>
+        <v>1.201923930070516</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.804970448053685</v>
@@ -11524,7 +11374,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.193104452912597</v>
+        <v>1.196480843470719</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.815665909248459</v>
@@ -11613,7 +11463,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.201576999296686</v>
+        <v>1.206012275454316</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.783925844107973</v>
@@ -11702,7 +11552,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.204211068165434</v>
+        <v>1.21134878580295</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.798109013215553</v>
@@ -11791,7 +11641,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.208918399509247</v>
+        <v>1.217887276601248</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.796410086684195</v>
@@ -11880,7 +11730,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.210658986674863</v>
+        <v>1.220858295921775</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.759289767710171</v>
@@ -11969,7 +11819,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.219961785281157</v>
+        <v>1.231426910371127</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.729897723394645</v>
@@ -12058,7 +11908,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.229102474221548</v>
+        <v>1.240117775156351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.749710245290869</v>
@@ -12147,7 +11997,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.238522816537063</v>
+        <v>1.250102586180657</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.719665418362914</v>
@@ -12236,7 +12086,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.32875372895049</v>
+        <v>1.340438630797554</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.480266083890676</v>
@@ -12325,7 +12175,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428632530481638</v>
+        <v>1.437431247242498</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.766969645606384</v>
@@ -12414,7 +12264,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.428976782021049</v>
+        <v>1.440520626263523</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.743094288247924</v>
@@ -12503,7 +12353,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.433229964697458</v>
+        <v>1.446627197346863</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.867637035752945</v>
@@ -12592,7 +12442,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.442437985332654</v>
+        <v>1.455056270033838</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.967852120469894</v>
@@ -12681,7 +12531,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450142536846217</v>
+        <v>1.464930940616005</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.703573999035792</v>
@@ -12770,7 +12620,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.455910355887964</v>
+        <v>1.464536514735776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.754957845481757</v>
@@ -12859,7 +12709,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462307407560023</v>
+        <v>1.466021266425438</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.618873410596383</v>
@@ -12948,7 +12798,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450524508877868</v>
+        <v>1.453693263264758</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.895753792358335</v>
@@ -13037,7 +12887,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456575747561836</v>
+        <v>1.456381155359427</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.891826037232921</v>
@@ -13126,7 +12976,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.456527400543419</v>
+        <v>1.456003052057228</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.906568275621594</v>
@@ -13215,7 +13065,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.462485586585859</v>
+        <v>1.46182841305952</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.684360497420375</v>
@@ -13304,7 +13154,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460294706980387</v>
+        <v>1.458128214018684</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.887245181496086</v>
@@ -13393,7 +13243,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468074112813037</v>
+        <v>1.461521247549767</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.573168747790766</v>
@@ -13482,7 +13332,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.461910314114784</v>
+        <v>1.452299564785389</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.546719821340495</v>
@@ -13571,7 +13421,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.460537516053287</v>
+        <v>1.453474127575327</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.796170763808885</v>
@@ -13660,7 +13510,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.446977781962232</v>
+        <v>1.446116076005265</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.879950169656595</v>
@@ -13749,7 +13599,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.445553897831744</v>
+        <v>1.446311176750251</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.782065287685822</v>
@@ -13838,7 +13688,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442005366039785</v>
+        <v>1.440477658438573</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.912001576796671</v>
@@ -13927,7 +13777,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.441811584524663</v>
+        <v>1.4398827507742</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.541677337750572</v>
@@ -14016,7 +13866,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.43035473094181</v>
+        <v>1.432760201836376</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.872346117945228</v>
@@ -14105,7 +13955,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.424481736952443</v>
+        <v>1.428335750343454</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.872276612190433</v>
@@ -14194,7 +14044,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.432570576171112</v>
+        <v>1.435165131190799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.658381980616137</v>
@@ -14283,7 +14133,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.443086072975528</v>
+        <v>1.445036306749568</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.63451108774198</v>
@@ -14372,7 +14222,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.435917438266175</v>
+        <v>1.444744269438724</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.871736107729235</v>
@@ -14461,7 +14311,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.427648754196832</v>
+        <v>1.436744652710643</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.6076304332734</v>
@@ -14550,7 +14400,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.427920426346266</v>
+        <v>1.43422011054612</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.665620867378868</v>
@@ -14639,7 +14489,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.427802983456512</v>
+        <v>1.430023873625332</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.818218616752865</v>
@@ -14728,7 +14578,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.411415889621644</v>
+        <v>1.418479040567841</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.603487478681608</v>
@@ -14817,7 +14667,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.34154257728875</v>
+        <v>1.355351847439127</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.984362335169474</v>
@@ -14906,7 +14756,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.333098252306553</v>
+        <v>1.345477109178571</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.960001741512702</v>
@@ -14995,7 +14845,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.337167057578875</v>
+        <v>1.351302036679783</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.955595345738831</v>
@@ -15084,7 +14934,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.343922727622315</v>
+        <v>1.356674920749012</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.935187841252663</v>
@@ -15173,7 +15023,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.348016903577685</v>
+        <v>1.36440517169132</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.930720969253724</v>
@@ -15262,7 +15112,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.34627105691121</v>
+        <v>1.363149850632678</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.962693468901572</v>
@@ -15351,7 +15201,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.356697470125468</v>
+        <v>1.371991428008922</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.930525996007971</v>
@@ -15440,7 +15290,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.359834415104183</v>
+        <v>1.375462165757779</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.919542622307345</v>
@@ -15529,7 +15379,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.356027718176433</v>
+        <v>1.373788713230215</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.916601632870161</v>
@@ -15815,7 +15665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524258757577973</v>
+        <v>1.522157566254084</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.475938023164628</v>
@@ -15904,7 +15754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.529516488318199</v>
+        <v>1.532524144103882</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.475211537595563</v>
@@ -15993,7 +15843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.531172925712959</v>
+        <v>1.536701931824479</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.509627493290504</v>
@@ -16082,7 +15932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531396495616136</v>
+        <v>1.539991349098127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.571861120128066</v>
@@ -16171,7 +16021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.533012945314431</v>
+        <v>1.537535249898986</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.476474605724607</v>
@@ -16260,7 +16110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.544834548195819</v>
+        <v>1.550745029923283</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.50965551823496</v>
@@ -16349,7 +16199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.560912712591863</v>
+        <v>1.562763131955469</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.606712306056034</v>
@@ -16438,7 +16288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.597763394272126</v>
+        <v>1.58811645175149</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.87162218864472</v>
@@ -16527,7 +16377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.623153799013136</v>
+        <v>1.613749344634303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.920321010702006</v>
@@ -16616,7 +16466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.639730902515357</v>
+        <v>1.614573334579311</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.92657633923757</v>
@@ -16705,7 +16555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.65108476012091</v>
+        <v>1.613230640166309</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.128568979915551</v>
@@ -16794,7 +16644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.660397785917728</v>
+        <v>1.613114861901466</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.998157207844133</v>
@@ -16883,7 +16733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660528686520646</v>
+        <v>1.608336751557105</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.332421834269121</v>
@@ -16972,7 +16822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.654002309310256</v>
+        <v>1.599163173233083</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.513990778764918</v>
@@ -17061,7 +16911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.645526218332888</v>
+        <v>1.596854870052708</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.02648014590835</v>
@@ -17150,7 +17000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639055359244785</v>
+        <v>1.596070821461414</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.89527360927098</v>
@@ -17239,7 +17089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.629959972477626</v>
+        <v>1.584033515263276</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.854694346085019</v>
@@ -17328,7 +17178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.632938883775784</v>
+        <v>1.58182324174882</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.894333224644575</v>
@@ -17417,7 +17267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.630799948145269</v>
+        <v>1.583158284626117</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.76487234479535</v>
@@ -17506,7 +17356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639061866250186</v>
+        <v>1.589375573861582</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.776715915928251</v>
@@ -17595,7 +17445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628581243758987</v>
+        <v>1.580943901370631</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.767504907410972</v>
@@ -17684,7 +17534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.635837113400397</v>
+        <v>1.593854799318857</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.837563464906682</v>
@@ -17773,7 +17623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62719449426051</v>
+        <v>1.589071463342725</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.68138943931166</v>
@@ -17862,7 +17712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630885818961799</v>
+        <v>1.591272804617755</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.815165131611966</v>
@@ -17951,7 +17801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.632609041514014</v>
+        <v>1.603575452680709</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.871306783567486</v>
@@ -18040,7 +17890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631429216296182</v>
+        <v>1.606875365150682</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.847016069167622</v>
@@ -18129,7 +17979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62371225891495</v>
+        <v>1.606943937605078</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.870613485402709</v>
@@ -18218,7 +18068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628122510317641</v>
+        <v>1.61461195583682</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.644066011660399</v>
@@ -18307,7 +18157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.643408676543494</v>
+        <v>1.626557761680141</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.922988660268496</v>
@@ -18396,7 +18246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.636455883826142</v>
+        <v>1.617962154962518</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.709000404092555</v>
@@ -18485,7 +18335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651336176200944</v>
+        <v>1.632415445780033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.567670107669421</v>
@@ -18574,7 +18424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65912320791314</v>
+        <v>1.632577451404539</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.777400925600317</v>
@@ -18663,7 +18513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.661476696048383</v>
+        <v>1.637694178781534</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.049138355375995</v>
@@ -18752,7 +18602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67409485565361</v>
+        <v>1.644397635080243</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.125643343054922</v>
@@ -18841,7 +18691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664070580628655</v>
+        <v>1.632648079561412</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.197259927723615</v>
@@ -18930,7 +18780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680441162041661</v>
+        <v>1.64867491634295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.112522562609805</v>
@@ -19019,7 +18869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.665180564779298</v>
+        <v>1.626909975592741</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.220977927273214</v>
@@ -19108,7 +18958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646319272667598</v>
+        <v>1.612841466806268</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.952025714660538</v>
@@ -19197,7 +19047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.641228149473009</v>
+        <v>1.610047798340535</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.984160189952324</v>
@@ -19286,7 +19136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.647651731412489</v>
+        <v>1.615863774783187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.818385707100453</v>
@@ -19375,7 +19225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633159129097457</v>
+        <v>1.600936037125832</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.925455777824482</v>
@@ -19464,7 +19314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.637140843007673</v>
+        <v>1.602013729514563</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.925734289556845</v>
@@ -19553,7 +19403,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633109536610541</v>
+        <v>1.596010125628266</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.961100863786931</v>
@@ -19642,7 +19492,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.628139761404268</v>
+        <v>1.592506025678885</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.723493480557253</v>
@@ -19731,7 +19581,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636333509301179</v>
+        <v>1.594792702702726</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.88221188318224</v>
@@ -19820,7 +19670,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632200506494575</v>
+        <v>1.593543673370618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.979642021245635</v>
@@ -19909,7 +19759,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633627961792448</v>
+        <v>1.595424544265102</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.037179564917963</v>
@@ -19998,7 +19848,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.632456170011033</v>
+        <v>1.598544081054392</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.10192105066342</v>
@@ -20087,7 +19937,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.628505850927067</v>
+        <v>1.592567540107659</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.636523878426147</v>
@@ -20176,7 +20026,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.637449900269014</v>
+        <v>1.598519065444634</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.680379026211209</v>
@@ -20265,7 +20115,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627622651010071</v>
+        <v>1.591161141875396</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.925664886179367</v>
@@ -20354,7 +20204,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.647080471194935</v>
+        <v>1.609677127224013</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.944899176231667</v>
@@ -20443,7 +20293,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.67179269978958</v>
+        <v>1.625429510322823</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.465925676441155</v>
@@ -20532,7 +20382,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674911767305952</v>
+        <v>1.62248999960572</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.322709620359148</v>
@@ -20621,7 +20471,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.672729688953455</v>
+        <v>1.618050368679494</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.157841821889488</v>
@@ -20710,7 +20560,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.679774952071918</v>
+        <v>1.616695384960082</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.610416395802243</v>
@@ -20799,7 +20649,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.685369147213895</v>
+        <v>1.621340228541908</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.410911216464069</v>
@@ -20888,7 +20738,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.6725836578438</v>
+        <v>1.607778457548363</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.242637426079918</v>
@@ -20977,7 +20827,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.67344607769868</v>
+        <v>1.610186651316197</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.134009775358337</v>
@@ -21066,7 +20916,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.663862302985309</v>
+        <v>1.613318848287611</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.094622903995504</v>
@@ -21155,7 +21005,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.668256326775915</v>
+        <v>1.612322600126554</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.004593831799438</v>
@@ -21244,7 +21094,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.657326471473236</v>
+        <v>1.608701251746551</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.048052597509495</v>
@@ -21333,7 +21183,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.653037965155832</v>
+        <v>1.600407196425075</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.011616799462052</v>
@@ -21422,7 +21272,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.648279922343867</v>
+        <v>1.602054495516631</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.952557852928089</v>
@@ -21511,7 +21361,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.643954782669419</v>
+        <v>1.589034030273007</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.917086544323846</v>
@@ -21600,7 +21450,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.640086480230235</v>
+        <v>1.582871935658815</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.117141785197044</v>
@@ -21689,7 +21539,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.636279990925123</v>
+        <v>1.579903741385929</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.078722064284163</v>
@@ -21778,7 +21628,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.640886330388499</v>
+        <v>1.584255642155707</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.081949667392109</v>
@@ -22064,7 +21914,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.552269730430568</v>
+        <v>1.534517475682241</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.92669557487798</v>
@@ -22153,7 +22003,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551829987675407</v>
+        <v>1.529556651909484</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.756686384784631</v>
@@ -22242,7 +22092,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560103762461948</v>
+        <v>1.542682827073045</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.908132207312618</v>
@@ -22331,7 +22181,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.557744402932359</v>
+        <v>1.540150528916328</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.016694073479709</v>
@@ -22420,7 +22270,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.561423810924103</v>
+        <v>1.53808696908982</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.841853937125534</v>
@@ -22509,7 +22359,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570386677273075</v>
+        <v>1.548086315850929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.799551288229482</v>
@@ -22598,7 +22448,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576978950690271</v>
+        <v>1.555933807202216</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.818309377795797</v>
@@ -22687,7 +22537,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600779724952609</v>
+        <v>1.577459486887612</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.801447453741768</v>
@@ -22776,7 +22626,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.621645282982534</v>
+        <v>1.592563678386971</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.36030045242854</v>
@@ -22865,7 +22715,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63015271345804</v>
+        <v>1.593086237526752</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.127506339689225</v>
@@ -22954,7 +22804,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.628258758464259</v>
+        <v>1.584810978760127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.320273455435102</v>
@@ -23043,7 +22893,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636960748262861</v>
+        <v>1.586529880922945</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.279763584688914</v>
@@ -23132,7 +22982,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65377412451187</v>
+        <v>1.598507484536018</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.191920517927682</v>
@@ -23221,7 +23071,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.662430379775766</v>
+        <v>1.603816958622984</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.078571816321917</v>
@@ -23310,7 +23160,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.664550268347944</v>
+        <v>1.605167837811746</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.279931119333705</v>
@@ -23399,7 +23249,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608699300857362</v>
+        <v>1.566057983734811</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.282388970171215</v>
@@ -23488,7 +23338,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564054895082289</v>
+        <v>1.541889637154874</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.223740730044074</v>
@@ -23577,7 +23427,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559786483346129</v>
+        <v>1.540277743979557</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.262479169356848</v>
@@ -23666,7 +23516,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575592987286055</v>
+        <v>1.554106645897861</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.205383761897496</v>
@@ -23755,7 +23605,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572419797145861</v>
+        <v>1.553663287718082</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.321197142253891</v>
@@ -23844,7 +23694,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56325557390706</v>
+        <v>1.544319068313832</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.308443202706275</v>
@@ -23933,7 +23783,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578173801305124</v>
+        <v>1.561782646779317</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.268995413294694</v>
@@ -24022,7 +23872,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58337443055245</v>
+        <v>1.568493816727848</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.264241146526256</v>
@@ -24111,7 +23961,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592490778827621</v>
+        <v>1.578312757928888</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.227206822382977</v>
@@ -24200,7 +24050,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.593101230593063</v>
+        <v>1.581799036205374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.222874332030253</v>
@@ -24289,7 +24139,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.590913158238736</v>
+        <v>1.583708987993902</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.242388078707306</v>
@@ -24378,7 +24228,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594000066309835</v>
+        <v>1.591322968998426</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.250770425492094</v>
@@ -24467,7 +24317,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590278179024917</v>
+        <v>1.594672069987588</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.226434451241599</v>
@@ -24556,7 +24406,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601939997570294</v>
+        <v>1.606921039149248</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.286413615305082</v>
@@ -24645,7 +24495,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606376088723573</v>
+        <v>1.608800677266319</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.131154876653351</v>
@@ -24734,7 +24584,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.681133167292841</v>
+        <v>1.671892355272709</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.123038365819739</v>
@@ -24823,7 +24673,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715866836785471</v>
+        <v>1.687624492728064</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.360513767198909</v>
@@ -24912,7 +24762,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.723142018448925</v>
+        <v>1.687381823801758</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.257430265111227</v>
@@ -25001,7 +24851,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.713457181876502</v>
+        <v>1.675247697100784</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.474947970902027</v>
@@ -25090,7 +24940,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712247689603794</v>
+        <v>1.670609299042687</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.270025904281081</v>
@@ -25179,7 +25029,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.720800939359046</v>
+        <v>1.678175625338517</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.192068932799363</v>
@@ -25268,7 +25118,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719806279870834</v>
+        <v>1.66213978580349</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.216468353662657</v>
@@ -25357,7 +25207,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.689063970976061</v>
+        <v>1.635089503480684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.124834176686556</v>
@@ -25446,7 +25296,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67463433637491</v>
+        <v>1.620864989822168</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.137132271078442</v>
@@ -25535,7 +25385,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672131558549807</v>
+        <v>1.616066774891265</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.065461848850452</v>
@@ -25624,7 +25474,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.664771858687023</v>
+        <v>1.607754674763232</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.226181279136727</v>
@@ -25713,7 +25563,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659497161210112</v>
+        <v>1.597616153052195</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.853485027125977</v>
@@ -25802,7 +25652,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.64440165258694</v>
+        <v>1.578327952158568</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.054618866471562</v>
@@ -25891,7 +25741,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.631574420353003</v>
+        <v>1.56662826169027</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.832217611926954</v>
@@ -25980,7 +25830,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636467579136906</v>
+        <v>1.570276845281181</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.904329152463299</v>
@@ -26069,7 +25919,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627786403527648</v>
+        <v>1.566293123299381</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.232977249916812</v>
@@ -26158,7 +26008,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.626166375506068</v>
+        <v>1.573138789848046</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.778905890389136</v>
@@ -26247,7 +26097,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613927292840366</v>
+        <v>1.568444616000687</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.938418764049669</v>
@@ -26336,7 +26186,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603489612441998</v>
+        <v>1.559506142863461</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.850169995999181</v>
@@ -26425,7 +26275,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.611182793340127</v>
+        <v>1.567744917170806</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.415893229950186</v>
@@ -26514,7 +26364,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.608254803651699</v>
+        <v>1.568446551238514</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.070157140572646</v>
@@ -26603,7 +26453,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.597998210032302</v>
+        <v>1.563780513032792</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.168261756852741</v>
@@ -26692,7 +26542,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.615448488830612</v>
+        <v>1.574216563224561</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.417566349861425</v>
@@ -26781,7 +26631,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.631081168851259</v>
+        <v>1.59297463129603</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.178047738730918</v>
@@ -26870,7 +26720,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.633519388703544</v>
+        <v>1.596230212933203</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.346702778855661</v>
@@ -26959,7 +26809,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.643777295754396</v>
+        <v>1.5989304061586</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.623968765475721</v>
@@ -27048,7 +26898,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.648352794561615</v>
+        <v>1.605060137054536</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.164415374567303</v>
@@ -27137,7 +26987,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655221935562827</v>
+        <v>1.61361089232497</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.657763731672191</v>
@@ -27226,7 +27076,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.654423700653348</v>
+        <v>1.612737427942244</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.538294315105994</v>
@@ -27315,7 +27165,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.641210477842995</v>
+        <v>1.60480027598165</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.209853320435928</v>
@@ -27404,7 +27254,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.638414343269033</v>
+        <v>1.600438767842217</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.517847620909888</v>
@@ -27493,7 +27343,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.632147500930933</v>
+        <v>1.592290925002066</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.067960552014236</v>
@@ -27582,7 +27432,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.631958498862266</v>
+        <v>1.592977122889781</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.132327419834394</v>
@@ -27671,7 +27521,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636627023058476</v>
+        <v>1.60046253173146</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.14709569610919</v>
@@ -27760,7 +27610,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.639667048664246</v>
+        <v>1.594091407674385</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.200572545300235</v>
@@ -27849,7 +27699,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.632800765438367</v>
+        <v>1.585238339670357</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.371059075430858</v>
@@ -27938,7 +27788,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.636107678854771</v>
+        <v>1.592768888518399</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.537103520031188</v>
@@ -28027,7 +27877,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.649030670330915</v>
+        <v>1.603502085869349</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.133081786515847</v>
@@ -28313,7 +28163,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.407628573792759</v>
+        <v>1.399687863805439</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.46909270156954</v>
@@ -28402,7 +28252,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.398760029582613</v>
+        <v>1.389893926914016</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.489753604890898</v>
@@ -28491,7 +28341,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.399474295337911</v>
+        <v>1.393637909576781</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.45059358291426</v>
@@ -28580,7 +28430,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.39658639449486</v>
+        <v>1.393487080619216</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.48260715620485</v>
@@ -28669,7 +28519,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.400304386730097</v>
+        <v>1.39758657698248</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.481161272886794</v>
@@ -28758,7 +28608,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408715483299184</v>
+        <v>1.4081142746702</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.417735942351254</v>
@@ -28847,7 +28697,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.410809207413953</v>
+        <v>1.412985168094334</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.146026975837961</v>
@@ -28936,7 +28786,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.43252065221467</v>
+        <v>1.438017539014127</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.137889810942825</v>
@@ -29025,7 +28875,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.481612788628994</v>
+        <v>1.491393545454825</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.346298631401736</v>
@@ -29114,7 +28964,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519733204392625</v>
+        <v>1.520073018666608</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.57168299330048</v>
@@ -29203,7 +29053,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.547455360702014</v>
+        <v>1.539757709699834</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.510060460454802</v>
@@ -29292,7 +29142,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555674795827718</v>
+        <v>1.545255283833567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.428405232669628</v>
@@ -29381,7 +29231,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563355803569183</v>
+        <v>1.547152781107471</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.508626397759372</v>
@@ -29470,7 +29320,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562262210707255</v>
+        <v>1.548531104294659</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.517104967024679</v>
@@ -29559,7 +29409,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.573122232085647</v>
+        <v>1.564230197958915</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.471060756725016</v>
@@ -29648,7 +29498,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531233818932372</v>
+        <v>1.522024678192627</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.336150620137419</v>
@@ -29737,7 +29587,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.482773592023542</v>
+        <v>1.478748215621965</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.375446291330547</v>
@@ -29826,7 +29676,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459270950599982</v>
+        <v>1.451671528707633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.395373761541748</v>
@@ -29915,7 +29765,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.45261886975051</v>
+        <v>1.440812752719677</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.453616201529558</v>
@@ -30004,7 +29854,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.450212823941494</v>
+        <v>1.436096003758109</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.360486265071104</v>
@@ -30093,7 +29943,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447516911139497</v>
+        <v>1.433031365314482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.411205496766716</v>
@@ -30182,7 +30032,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461646516593547</v>
+        <v>1.447688601811548</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.346241111057429</v>
@@ -30271,7 +30121,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.449239699364023</v>
+        <v>1.438777641650935</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.471158630764344</v>
@@ -30360,7 +30210,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.445274427397638</v>
+        <v>1.434875223024379</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.344517026420115</v>
@@ -30449,7 +30299,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.437159272861906</v>
+        <v>1.433829426393303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.330376366217705</v>
@@ -30538,7 +30388,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.42823312063758</v>
+        <v>1.428206535093067</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.314922805237872</v>
@@ -30627,7 +30477,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.421837556781421</v>
+        <v>1.42397075648586</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.309855644967274</v>
@@ -30716,7 +30566,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427977591071419</v>
+        <v>1.43082463302697</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.217173640707342</v>
@@ -30805,7 +30655,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.446089153563445</v>
+        <v>1.447433297590835</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.337192439647556</v>
@@ -30894,7 +30744,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.447978300755302</v>
+        <v>1.448024800609217</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.313098313703172</v>
@@ -30983,7 +30833,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489787565701775</v>
+        <v>1.49208497819571</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.215174737144623</v>
@@ -31072,7 +30922,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.537058452149998</v>
+        <v>1.522299523431024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.331238247782428</v>
@@ -31161,7 +31011,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.574392067159609</v>
+        <v>1.557463368186273</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.470342786098113</v>
@@ -31250,7 +31100,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602882590814962</v>
+        <v>1.583785769841613</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.326154906270526</v>
@@ -31339,7 +31189,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595520062576988</v>
+        <v>1.582530291918491</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.443437623329585</v>
@@ -31428,7 +31278,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59956069714938</v>
+        <v>1.586029604122342</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.464397299176153</v>
@@ -31517,7 +31367,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625072943426921</v>
+        <v>1.587302835629589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.416923238513931</v>
@@ -31606,7 +31456,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.66881171606702</v>
+        <v>1.614652371972937</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.672619389165122</v>
@@ -31695,7 +31545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.66554618646355</v>
+        <v>1.603751808256119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.143029253624858</v>
@@ -31784,7 +31634,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676083562351252</v>
+        <v>1.608030296622755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.543572541557694</v>
@@ -31873,7 +31723,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665497085622315</v>
+        <v>1.595994302436852</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.451411881922779</v>
@@ -31962,7 +31812,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673840007260465</v>
+        <v>1.599704385643799</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.628506635001904</v>
@@ -32051,7 +31901,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.675262804073797</v>
+        <v>1.598615502835701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.297879712375999</v>
@@ -32140,7 +31990,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.677257371875659</v>
+        <v>1.596296399732543</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.490809904576642</v>
@@ -32229,7 +32079,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.670760392980768</v>
+        <v>1.585833816947926</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.42884310757408</v>
@@ -32318,7 +32168,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668281382130422</v>
+        <v>1.583223704971738</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.329299340033775</v>
@@ -32407,7 +32257,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670306203898944</v>
+        <v>1.594066004419059</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.110198579063544</v>
@@ -32496,7 +32346,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.668851672344001</v>
+        <v>1.599001739034802</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.488265330627619</v>
@@ -32585,7 +32435,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.647948005781978</v>
+        <v>1.581372286668308</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.333332325106464</v>
@@ -32674,7 +32524,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65131899575513</v>
+        <v>1.575848254590757</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.437719310713189</v>
@@ -32763,7 +32613,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.655942718351884</v>
+        <v>1.575475556154412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.575963915542683</v>
@@ -32852,7 +32702,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65840952211228</v>
+        <v>1.584500968133356</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.542927796554193</v>
@@ -32941,7 +32791,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.622278859569628</v>
+        <v>1.567803500468531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.169711182525056</v>
@@ -33030,7 +32880,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.629837120929121</v>
+        <v>1.57410593393487</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.052752443863282</v>
@@ -33119,7 +32969,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.638944842741296</v>
+        <v>1.586681590148565</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.023892629120461</v>
@@ -33208,7 +33058,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650062967192186</v>
+        <v>1.59864580359027</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.185521949717653</v>
@@ -33297,7 +33147,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.655401414286582</v>
+        <v>1.603518415418129</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.002272160995138</v>
@@ -33386,7 +33236,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656618952583226</v>
+        <v>1.606919411804037</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.258438054068097</v>
@@ -33475,7 +33325,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.664004413441784</v>
+        <v>1.61681020149228</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.900848562440666</v>
@@ -33564,7 +33414,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.651535699840683</v>
+        <v>1.610517009419092</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.154837101439331</v>
@@ -33653,7 +33503,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.654753019387235</v>
+        <v>1.618292172627449</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.116022816239842</v>
@@ -33742,7 +33592,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.660359313260962</v>
+        <v>1.628946303065666</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.066022838998031</v>
@@ -33831,7 +33681,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.661075604648514</v>
+        <v>1.632716723999224</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.232711051554452</v>
@@ -33920,7 +33770,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.670856412016394</v>
+        <v>1.643426053765037</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.336855377491448</v>
@@ -34009,7 +33859,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.678889156486046</v>
+        <v>1.654473171065</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.198468953158251</v>
@@ -34098,7 +33948,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.679635431668418</v>
+        <v>1.655148148817224</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.121470456855159</v>
@@ -34187,7 +34037,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.696516608484861</v>
+        <v>1.669210962458273</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.897705183517307</v>
@@ -34276,7 +34126,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.73046970801968</v>
+        <v>1.69356704807249</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.389628269054032</v>
@@ -34562,7 +34412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.155735727733907</v>
+        <v>1.133334193984984</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.072222505662554</v>
@@ -34651,7 +34501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.162727338086255</v>
+        <v>1.139731775855887</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.001495739594748</v>
@@ -34740,7 +34590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.173223843541718</v>
+        <v>1.150377948879459</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.050729004891324</v>
@@ -34829,7 +34679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.172947529111786</v>
+        <v>1.149185959154742</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.059556957720882</v>
@@ -34918,7 +34768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.18741810996486</v>
+        <v>1.161296297682199</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.041933178933728</v>
@@ -35007,7 +34857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.19170352647015</v>
+        <v>1.167870798753752</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.980233821799413</v>
@@ -35096,7 +34946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.206225185086161</v>
+        <v>1.186183318254714</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.010395758186663</v>
@@ -35185,7 +35035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.222715605110483</v>
+        <v>1.206601977104982</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.020495518145938</v>
@@ -35274,7 +35124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.223748736910779</v>
+        <v>1.211283321260434</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.877565043351143</v>
@@ -35363,7 +35213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.221781321811042</v>
+        <v>1.205259283541037</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.90299635061972</v>
@@ -35452,7 +35302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.219572357400665</v>
+        <v>1.201846383582901</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.924810893609628</v>
@@ -35541,7 +35391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.231244260035004</v>
+        <v>1.21303906948689</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.897173302142864</v>
@@ -35630,7 +35480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.243003205537332</v>
+        <v>1.223391585765683</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.911881356542946</v>
@@ -35719,7 +35569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.26958633225945</v>
+        <v>1.255251125553283</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.380071298907555</v>
@@ -35808,7 +35658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.267773491929262</v>
+        <v>1.254020812475351</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.326052010375231</v>
@@ -35897,7 +35747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.278531329556636</v>
+        <v>1.267961518101468</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.193944512618172</v>
@@ -35986,7 +35836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.278246873686844</v>
+        <v>1.275662682225048</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.466244395405236</v>
@@ -36075,7 +35925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.269555366988466</v>
+        <v>1.26698292248373</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.54315216357786</v>
@@ -36164,7 +36014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.281355213949227</v>
+        <v>1.284509814706578</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.181391959424562</v>
@@ -36253,7 +36103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.297626972766652</v>
+        <v>1.303121595073088</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.288535478865516</v>
@@ -36342,7 +36192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.288831840536429</v>
+        <v>1.287672289029749</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.448935518138873</v>
@@ -36431,7 +36281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.2954867380443</v>
+        <v>1.299670269085514</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.452408651727921</v>
@@ -36520,7 +36370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.304674689390258</v>
+        <v>1.297710318013662</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.59371450307779</v>
@@ -36609,7 +36459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.29898095455785</v>
+        <v>1.29448157644333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.391735458487172</v>
@@ -36698,7 +36548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.290171833773306</v>
+        <v>1.285627902219202</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.558301301801475</v>
@@ -36787,7 +36637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.272501514928048</v>
+        <v>1.269145946349151</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.43506930456534</v>
@@ -36876,7 +36726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.260592882108838</v>
+        <v>1.2586388812768</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.585191876070547</v>
@@ -36965,7 +36815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.267595489826294</v>
+        <v>1.26622704320985</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.525434970833022</v>
@@ -37054,7 +36904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.285458731598196</v>
+        <v>1.285742824169193</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.508923547221103</v>
@@ -37143,7 +36993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.288727507111266</v>
+        <v>1.287176819977915</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.2426699049865</v>
@@ -37232,7 +37082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.299141918096301</v>
+        <v>1.301529423981315</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.266948495171865</v>
@@ -37321,7 +37171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.30617343741416</v>
+        <v>1.305236476828069</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.417060208839648</v>
@@ -37410,7 +37260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.316093717911637</v>
+        <v>1.314980433074834</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.37815017111931</v>
@@ -37499,7 +37349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.327825800413577</v>
+        <v>1.321314795528192</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.374933337591833</v>
@@ -37588,7 +37438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.322564265273414</v>
+        <v>1.312136767333996</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.182484153170964</v>
@@ -37677,7 +37527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.33107050940802</v>
+        <v>1.325833501951256</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.38243391942969</v>
@@ -37766,7 +37616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.32035092911274</v>
+        <v>1.312618983805622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.122265432777039</v>
@@ -37855,7 +37705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.308729626715737</v>
+        <v>1.30377577002431</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.057555003802983</v>
@@ -37944,7 +37794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.292063997789711</v>
+        <v>1.293055648315809</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.021346896114138</v>
@@ -38033,7 +37883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.312199104215012</v>
+        <v>1.308385459558255</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.021185388513706</v>
@@ -38122,7 +37972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33657522893692</v>
+        <v>1.33255473662018</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.014315916849526</v>
@@ -38211,7 +38061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.338530042775824</v>
+        <v>1.329171036591355</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.069564466796736</v>
@@ -38300,7 +38150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.314775800762491</v>
+        <v>1.307939741738954</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.178872110279353</v>
@@ -38389,7 +38239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.294539100616108</v>
+        <v>1.285371472985207</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.079411586376581</v>
@@ -38478,7 +38328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.2906733765597</v>
+        <v>1.282148074172752</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.140188787688417</v>
@@ -38567,7 +38417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.283729903483835</v>
+        <v>1.27432820400191</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.08786934925045</v>
@@ -38656,7 +38506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.282522792933465</v>
+        <v>1.273258048489572</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.219421654996694</v>
@@ -38745,7 +38595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.27579992967796</v>
+        <v>1.262979167977994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.123758332902957</v>
@@ -38834,7 +38684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.264595633240479</v>
+        <v>1.252665928533603</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.073950769630342</v>
@@ -38923,7 +38773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.278433094433028</v>
+        <v>1.268175389937442</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.107419427307767</v>
@@ -39012,7 +38862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.277502030314468</v>
+        <v>1.265997490187075</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.16023045759791</v>
@@ -39101,7 +38951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.286819751798771</v>
+        <v>1.277875016521428</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.111167075641234</v>
@@ -39190,7 +39040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.333764606085505</v>
+        <v>1.320253972896174</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.340304173358624</v>
@@ -39279,7 +39129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.369139125427438</v>
+        <v>1.352973413576092</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.432914071014753</v>
@@ -39368,7 +39218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.378496424557835</v>
+        <v>1.362089313899791</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.177102978382469</v>
@@ -39457,7 +39307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.377046636255246</v>
+        <v>1.361039568518318</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.289512714809199</v>
@@ -39546,7 +39396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.407852014726777</v>
+        <v>1.39134568386364</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.343505354566773</v>
@@ -39635,7 +39485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.4192607406876</v>
+        <v>1.399649313721789</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.570079661138661</v>
@@ -39724,7 +39574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.423430105656109</v>
+        <v>1.402570970553144</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.331040302856264</v>
@@ -39813,7 +39663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.426446532776672</v>
+        <v>1.404395893993273</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.338108521266916</v>
@@ -39902,7 +39752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.406735443916762</v>
+        <v>1.387415987044335</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.362051238795335</v>
@@ -39991,7 +39841,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.401933583477299</v>
+        <v>1.38607407698532</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.385567467756377</v>
@@ -40080,7 +39930,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.390365684524608</v>
+        <v>1.372688126409757</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.116700784138196</v>
@@ -40169,7 +40019,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.393010869231498</v>
+        <v>1.383034829110094</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.337700209538095</v>
@@ -40258,7 +40108,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.386746845323987</v>
+        <v>1.372878610994803</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.371676026793118</v>
@@ -40347,7 +40197,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.391577475144215</v>
+        <v>1.38007935418166</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.332678019348088</v>
@@ -40436,7 +40286,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.384605975091224</v>
+        <v>1.377754467466234</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.462566622562839</v>
@@ -40525,7 +40375,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.355586836470463</v>
+        <v>1.351504214319202</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.494802143036408</v>
